--- a/medicine/Enfance/Alain_Sirvent/Alain_Sirvent.xlsx
+++ b/medicine/Enfance/Alain_Sirvent/Alain_Sirvent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Patrick Sirvent, né à Oran (Algérie), le 21 mai 1961, est un Illustrateur, scénographe et designer français. Il vit depuis 2006 entre l’Asie et la France.
 </t>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Sirvent est né en 1961 à Oran durant la guerre d’Algérie, d'un père d’origine espagnole, dessinateur topographe et d'une mère franco-italienne, il est le deuxième enfant d’une fratrie de cinq. Ils arrivent en France en 1962 après l’indépendance de l’Algérie.
-Les débuts
-Avant de s'adonner à la bande dessinée, il exerce d'autres métiers, comme pâtissier, formé à la maison du pâtissier à Marseille et chef de ligne dans une usine de plats cuisinée. Parallèlement il commence ses premières armes dans des journaux locaux d’Arles et d’Avignon, fait des illustrations de cartes postales et d’affiches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alain_Sirvent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Sirvent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les débuts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de s'adonner à la bande dessinée, il exerce d'autres métiers, comme pâtissier, formé à la maison du pâtissier à Marseille et chef de ligne dans une usine de plats cuisinée. Parallèlement il commence ses premières armes dans des journaux locaux d’Arles et d’Avignon, fait des illustrations de cartes postales et d’affiches.
 C’est en 1990 qu’il rencontre François Corteggiani, et commence une première collaboration, avec un premier album de bande dessinée pour Soleil production, Kostar le Magnifique.
 De 1992 à 1997, après Kostar le magnifique, son éditeur lui propose de faire de la mise en couleurs pour d’autres auteurs. Paul Glaudel, Michel Suro, Georges Ramaïoli, Colin Wilson, Serge Carrère. Puis pour d’autres maisons d’éditions, Franck Bonnet, Michaël Monnin, Philippe Bercovici, Ollivier Gaty, Christian Godard.
 De 1993 à 1995, il entre comme illustrateur, maquettiste et responsable shooting chez Playjeux. Et réalise les catalogues de VPC durant ces années.
@@ -526,52 +575,54 @@
 En 2000, alors qu’il cherche pour son fils Léo un livre sur les pirates au Salon du livre jeunesse de Montreuil et qu’il ne trouve rien de satisfaisant, ils décident avec Jean François Ecoiffier de faire leur Pirate. Alain Sirvent pose la trame et les personnages, Jean- François Ecoiffier fait rugir son capitaine Torgnole et les mots de sa plume aiguisée comme un sabre d’abordage et nous grave une histoire remplie d’écume et de tempêtes, ce sera Pirates  des vents. Suivra l’exposition, La taverne du Capitaine Torgnole, présente aussi au musée national de la Marine, durant l’exposition Pirates.
 Entre 2001 et 2005, Jean-François Ecoiffier et Alain Sirvent ont joué une animation spectacle-théâtrale, avec l’album illustré Pirates des Vents. Le comédien Eric Tremblay a également fait une adaptation de Pirates des vents au théâtre.
 En 2001, il crée Pimpon, un petit lapin bleu au gros nez rouge pour son fils César qui aime les carottes. Sur de jolis textes de Clotilde Bernos, deux titres parus sur quatre : Pimpon ne veut pas grandir et Pimpon ne veut pas se dépêcher. Suivra l’exposition, Le jardin de Pimpon. Un tapis d’éveil géant, pour les tout-petits. Réalisée pour les 20 ans de la Fête de la BD à Audincourt.
-Il revient à la bande dessinée en 2003 et sort la même année Le livre des monstres Princesse Hal chez Albin Michel, sur un scenario de Greg Newman. Et c’est aussi le début de la saga Les Toubibs, chez Bamboo Édition, série fondée sur des gags, avec au scenario Bélom et Gégé (Gérard Cousseau)[1],[2].
+Il revient à la bande dessinée en 2003 et sort la même année Le livre des monstres Princesse Hal chez Albin Michel, sur un scenario de Greg Newman. Et c’est aussi le début de la saga Les Toubibs, chez Bamboo Édition, série fondée sur des gags, avec au scenario Bélom et Gégé (Gérard Cousseau),.
 De 2003 à 2005, il enseigne à l’école Supinfocom de Arles en tant qu’intervenant art graphique, conception d’images.
 Depuis 2006, il vit entre le sud de la France, Shanghai  et Tokyo et s’est orienté vers l’art contemporain.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Alain_Sirvent</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Sirvent</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020 : Les Oiseaux en bande dessinée, Tome 1[3], Scénario : Jean-Luc Garréra, dessins : Alain Sirvent, Bamboo Édition.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020 : Les Oiseaux en bande dessinée, Tome 1, Scénario : Jean-Luc Garréra, dessins : Alain Sirvent, Bamboo Édition.
 2012 : Les Toubibs Best Or : Pas ce soir j’ai la migraine. Bamboo Édition.
 Scénario : Bélom et Gégé, dessins : Alain Sirvent.
-Iznogoud Président[4], IMAV Edition
+Iznogoud Président, IMAV Edition
 Dessins : Nicolas Tabary- Texte de Nicolas Canteloup et Laurent Vassilian, couleur : Vittorio Léonardo,
 encrage : Alain Sirvent.
 Album jeunesse pour la Fondation Sommer : Le jour ou maman est arrivée en retard.
 Texte Sylvye Thevenon-Dessin Alain Sirvent.
-2011 : Les Toubibs 9[5] : Snirf ! Bamboo Edition.
+2011 : Les Toubibs 9 : Snirf ! Bamboo Edition.
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
-2010 : Les Toubibs 8[6] : Salle des plâtres, Bamboo Edition.
+2010 : Les Toubibs 8 : Salle des plâtres, Bamboo Edition.
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
-2009 : Blagues de comptables : Il était une fois [7], Editions Delcourt.
+2009 : Blagues de comptables : Il était une fois , Editions Delcourt.
 Scénario : Guillon Patrice – Dessins : Alain Sirvent.
 Les Toubibs 7 : Faites "Aaaah... Bamboo Edition.
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
@@ -579,7 +630,7 @@
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
 2007 : Les Toubibs 5:Coup de blouse. Bamboo Edition.
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
-Album bd pour la MACSF. Médicalement votre [8].
+Album bd pour la MACSF. Médicalement votre .
 Scénario : Cazenove – Dessins : Alain Sirvent.
 2006 : Album BD pour la ville de SAINT OUEN
 Brèves de Saint-Ouen. Sortie pour décembre 2006
@@ -594,9 +645,9 @@
 Scénario : Bélom et Gégé – Dessins : Alain Sirvent.
 La lamentable histoire de la pizza. Colophon Editions.
 Texte : Philippe Devoghel – Dessins : Collectif.
-Le livre des monstres:Princesse Hal[9]. Albin Michel.
+Le livre des monstres:Princesse Hal. Albin Michel.
 Scénario : Greg Newman – Dessins : Alain Sirvent.
-2003 : Les Toubibs 1:C’est grave docteur ? Bamboo Edition[10].
+2003 : Les Toubibs 1:C’est grave docteur ? Bamboo Edition.
 Scénario : Bélom – Dessins : Alain Sirvent.
 Pimpon ne veut pas se dépêcher. Le Sablier  Editions.
 Texte : Clotilde Bernos – Dessins : Alain Sirvent. (Public 2/5 ans)
@@ -624,38 +675,40 @@
 Texte : Jean-François Ecoiffier – Dessins : Alain Sirvent. (Public 6/14 ans)
 1998 : 21 histoires abracadaboites. Le Sablier Editions.
 Texte : Jean-François Ecoiffier – Dessins : Alain Sirvent. (Public 6/14 ans)
-1992 :  Harry Dickson - T.1. L'Île des Possédés, réédité en 2013[11], Richard D. Nolane (scénario), Olivier Roman (dessin), Alain Sirvent (couleurs), Soleil
+1992 :  Harry Dickson - T.1. L'Île des Possédés, réédité en 2013, Richard D. Nolane (scénario), Olivier Roman (dessin), Alain Sirvent (couleurs), Soleil
 1991 : Kostar le magnifique. Soleil Productions.
 Scénario : François Corteggiani – Dessins : Alain Sirvent.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alain_Sirvent</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Sirvent</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Scénographe-concepteur d'expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2000 Œufs - L’Odyssée dans l’espace
 Auteur concepteur. Fabrication complète.
@@ -698,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alain_Sirvent</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Sirvent</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1998 : 21 histoires abracadaboites, prix de la fête du livre du Var  1999. Sélectionné par les enfants.
 2001 : Pirates  des vents, prix du livre jeunesse, festival de la BD Arles fait ses bulles, 2002.
